--- a/Expert-monitor-acte-noi/Data/Config.xlsx
+++ b/Expert-monitor-acte-noi/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandruCilea\Documents\GitHub\New folder\Expert-monitor-acte-noi\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandruCilea\Documents\GitHub\Expert Monitor\Expert-monitor-acte-noi\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9A7736-D02F-4096-AD33-D43EA32D9783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B1E7EE-3D4C-4360-84D3-BF5BA3401EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15810" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>ExpertMonitor_LastRunToChange</t>
+  </si>
+  <si>
+    <t>PDF_Path</t>
+  </si>
+  <si>
+    <t>C:\Users\AlexandruCilea\Documents\GitHub\Expert Monitor\Expert-monitor-acte-noi\Data\Temp\temp.pdf</t>
+  </si>
+  <si>
+    <t>Txt_Path</t>
+  </si>
+  <si>
+    <t>Data\Output\</t>
   </si>
 </sst>
 </file>
@@ -526,7 +538,7 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -603,8 +615,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Expert-monitor-acte-noi/Data/Config.xlsx
+++ b/Expert-monitor-acte-noi/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandruCilea\Documents\GitHub\Expert Monitor\Expert-monitor-acte-noi\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B1E7EE-3D4C-4360-84D3-BF5BA3401EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B596AEC-682E-4555-A54C-4A6C9B86E795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="15810" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,13 +139,13 @@
     <t>PDF_Path</t>
   </si>
   <si>
+    <t>Txt_Path</t>
+  </si>
+  <si>
+    <t>Data\Output\</t>
+  </si>
+  <si>
     <t>C:\Users\AlexandruCilea\Documents\GitHub\Expert Monitor\Expert-monitor-acte-noi\Data\Temp\temp.pdf</t>
-  </si>
-  <si>
-    <t>Txt_Path</t>
-  </si>
-  <si>
-    <t>Data\Output\</t>
   </si>
 </sst>
 </file>
@@ -620,15 +620,15 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
